--- a/code/results/initial_results_testing.xlsx
+++ b/code/results/initial_results_testing.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\code\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7D5807-9549-4325-97CC-A967561A8B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D70595-409D-4EA4-9062-4ED3B38BFB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="2250" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CEC HW Main Meter Power" sheetId="3" r:id="rId1"/>
-    <sheet name="CEC HW MM Entering Water Temp" sheetId="7" r:id="rId2"/>
-    <sheet name="CEC HW Main Meter Flow" sheetId="5" r:id="rId3"/>
+    <sheet name="CEC HW Main Meter Flow" sheetId="5" r:id="rId2"/>
+    <sheet name="CEC HW MM Entering Water Temp" sheetId="7" r:id="rId3"/>
     <sheet name="CEC  Boiler B-1 Gas Pressure" sheetId="6" r:id="rId4"/>
     <sheet name="CEC Boiler B-1 Exhaust O2" sheetId="2" r:id="rId5"/>
   </sheets>
@@ -709,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B3C323-40B6-4BF5-9EDF-8226163C5EBB}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -911,7 +911,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1208,11 +1208,323 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4B45E6-6EFC-4751-82DB-0009CA101AA4}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3.75</v>
+      </c>
+      <c r="F2" s="7">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3.75</v>
+      </c>
+      <c r="F3" s="7">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7">
+        <v>30</v>
+      </c>
+      <c r="E4" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7">
+        <v>60</v>
+      </c>
+      <c r="E5" s="7">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7">
+        <v>120</v>
+      </c>
+      <c r="E6" s="7">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C65B3-A036-4BA3-9413-F10CD97E3166}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,323 +2010,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4B45E6-6EFC-4751-82DB-0009CA101AA4}">
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="7">
-        <v>15</v>
-      </c>
-      <c r="E2" s="7">
-        <v>3.75</v>
-      </c>
-      <c r="F2" s="7">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0.125</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7">
-        <v>15</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3.75</v>
-      </c>
-      <c r="F3" s="7">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7">
-        <v>30</v>
-      </c>
-      <c r="E4" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="F4" s="7">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7">
-        <v>60</v>
-      </c>
-      <c r="E5" s="7">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7">
-        <v>120</v>
-      </c>
-      <c r="E6" s="7">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7532123-2591-490C-85C5-2590D6F87AC0}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/code/results/initial_results_testing.xlsx
+++ b/code/results/initial_results_testing.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\code\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D70595-409D-4EA4-9062-4ED3B38BFB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00442D2E-064B-409A-8E42-2C4E2145F80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="2250" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="2250" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CEC HW Main Meter Power" sheetId="3" r:id="rId1"/>
-    <sheet name="CEC HW Main Meter Flow" sheetId="5" r:id="rId2"/>
-    <sheet name="CEC HW MM Entering Water Temp" sheetId="7" r:id="rId3"/>
+    <sheet name="CEC HW MM Water Temperature" sheetId="5" r:id="rId2"/>
+    <sheet name="CEC HW Main Meter Flow" sheetId="7" r:id="rId3"/>
     <sheet name="CEC  Boiler B-1 Gas Pressure" sheetId="6" r:id="rId4"/>
     <sheet name="CEC Boiler B-1 Exhaust O2" sheetId="2" r:id="rId5"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="108">
   <si>
     <t>Dataset</t>
   </si>
@@ -342,6 +342,55 @@
   </si>
   <si>
     <t>- Has a harder time distinguishing normal and anamolous data even at higher thresholds</t>
+  </si>
+  <si>
+    <t>CEC_compiled_data_3a_updated.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_3a_PD_ts_15_thresh_25_a data_3a_PD_ts_15_thresh_25_b data_3a_PD_ts_15_thresh_25_c data_3a_PD_ts_15_thresh_25_d data_3a_PD_ts_15_thresh_25_e data_3a_PD_ts_15_thresh_25_f data_3a_PD_ts_15_thresh_25_g  data_3a_PD_ts_15_thresh_33_a data_3a_PD_ts_15_thresh_65_a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_3a_PD_ts_30_thresh_25_a  data_3a_PD_ts_30_thresh_33_a data_3a_PD_ts_30_thresh_65_a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_3a_PD_ts_60_thresh_25_a  data_3a_PD_ts_60_thresh_25_b data_3a_PD_ts_60_thresh_25_c data_3a_PD_ts_60_thresh_25_d data_3a_PD_ts_60_thresh_25_e data_3a_PD_ts_60_thresh_33_a data_3a_PD_ts_60_thresh_65_a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_3a_PD_ts_120_thresh_25_a data_3a_PD_ts_120_thresh_25_b  data_3a_PD_ts_120_thresh_33_a data_3a_PD_ts_120_thresh_65_a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_3b_PD_ts_15_thresh_25_a   data_3b_PD_ts_15_thresh_33_a data_3b_PD_ts_15_thresh_65_a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_3b_PD_ts_60_thresh_25_a   data_3b_PD_ts_60_thresh_33_a data_3b_PD_ts_60_thresh_65_a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_3a_SW_ts_15_thresh_25_a data_3a_SW_ts_15_thresh_25_b data_3a_SW_ts_15_thresh_25_c data_3a_SW_ts_15_thresh_25_d data_3a_SW_ts_15_thresh_25_e  data_3a_SW_ts_15_thresh_33_a data_3a_SW_ts_15_thresh_65_a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_3a_SW_ts_60_thresh_25_a  data_3a_SW_ts_60_thresh_33_a data_3a_SW_ts_60_thresh_65_a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_3a_SW_ts_120_thresh_25_a  data_3a_SW_ts_120_thresh_33_a data_3a_SW_ts_120_thresh_65_a </t>
+  </si>
+  <si>
+    <t>- Catches some part of most anomlies
+- May catch too many normal points</t>
+  </si>
+  <si>
+    <t>- Catches most parts of most anomlies
+- May catch too many normal points</t>
+  </si>
+  <si>
+    <t>- Catches most parts of most anomlies
+- Catches too many normal points</t>
+  </si>
+  <si>
+    <t>- Causes to higher sensitivity and labels more normal data</t>
+  </si>
+  <si>
+    <t>- Catches most event anomlies.
+- Catches too much normal data</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4B45E6-6EFC-4751-82DB-0009CA101AA4}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C65B3-A036-4BA3-9413-F10CD97E3166}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,9 +1630,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1608,18 +1657,18 @@
         <v>13</v>
       </c>
       <c r="J2" s="7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1644,18 +1693,18 @@
         <v>60</v>
       </c>
       <c r="J3" s="9">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1680,18 +1729,18 @@
         <v>53</v>
       </c>
       <c r="J4" s="9">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -1719,15 +1768,15 @@
         <v>0.2</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -1747,9 +1796,7 @@
       <c r="G6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="7" t="s">
         <v>60</v>
       </c>
@@ -1757,13 +1804,15 @@
         <v>46</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -1795,11 +1844,13 @@
       <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="L7" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -1823,19 +1874,19 @@
       <c r="I8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="7">
-        <v>0.33</v>
+      <c r="J8" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>61</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -1844,10 +1895,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E9" s="7">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7">
         <v>10</v>
@@ -1859,19 +1910,19 @@
       <c r="I9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="9">
-        <v>0.25</v>
+      <c r="J9" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
@@ -1880,10 +1931,10 @@
         <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E10" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7">
         <v>10</v>
@@ -1893,53 +1944,29 @@
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>80</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="7">
-        <v>120</v>
-      </c>
-      <c r="E11" s="7">
-        <v>30</v>
-      </c>
-      <c r="F11" s="7">
-        <v>10</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>73</v>
-      </c>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
@@ -1959,50 +1986,38 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
+      <c r="K13" s="12"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="12"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="4"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="6"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="4"/>
       <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/results/initial_results_testing.xlsx
+++ b/code/results/initial_results_testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\DataScience\Data599\w2020-data599-capstone-projects-ubc-udl\code\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00442D2E-064B-409A-8E42-2C4E2145F80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC66DFA-1BF9-43D7-86A5-5A79093CFF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="2250" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="2250" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CEC HW Main Meter Power" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="110">
   <si>
     <t>Dataset</t>
   </si>
@@ -391,6 +391,13 @@
   <si>
     <t>- Catches most event anomlies.
 - Catches too much normal data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_4a_SW_ts_4_thresh_60_a  </t>
+  </si>
+  <si>
+    <t>- Catches most event anomlies.
+- Catches too many normal points</t>
   </si>
 </sst>
 </file>
@@ -758,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B3C323-40B6-4BF5-9EDF-8226163C5EBB}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1268,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C65B3-A036-4BA3-9413-F10CD97E3166}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,7 +1651,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="7">
-        <v>3.75</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="7">
         <v>10</v>
@@ -1680,7 +1687,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="7">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="7">
         <v>10</v>
@@ -1716,7 +1723,7 @@
         <v>60</v>
       </c>
       <c r="E4" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F4" s="7">
         <v>10</v>
@@ -1752,7 +1759,7 @@
         <v>120</v>
       </c>
       <c r="E5" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F5" s="7">
         <v>10</v>
@@ -1788,7 +1795,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="7">
-        <v>3.75</v>
+        <v>0.25</v>
       </c>
       <c r="F6" s="7">
         <v>10</v>
@@ -1824,7 +1831,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="7">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="7">
         <v>10</v>
@@ -1862,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="7">
-        <v>3.75</v>
+        <v>0.25</v>
       </c>
       <c r="F8" s="7">
         <v>10</v>
@@ -1898,7 +1905,7 @@
         <v>60</v>
       </c>
       <c r="E9" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F9" s="7">
         <v>10</v>
@@ -1934,7 +1941,7 @@
         <v>120</v>
       </c>
       <c r="E10" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F10" s="7">
         <v>10</v>
@@ -2027,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7532123-2591-490C-85C5-2590D6F87AC0}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2303,7 +2310,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>64</v>
       </c>
@@ -2314,10 +2321,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E8" s="7">
-        <v>3.75</v>
+        <v>1</v>
       </c>
       <c r="F8" s="7">
         <v>10</v>
@@ -2326,17 +2333,17 @@
         <v>69</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
-        <v>60</v>
+      <c r="I8" s="7">
+        <v>0.6</v>
       </c>
       <c r="J8" s="7">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -2350,10 +2357,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="F9" s="7">
         <v>10</v>
@@ -2363,19 +2370,19 @@
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0.25</v>
+        <v>60</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.33</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
@@ -2386,10 +2393,10 @@
         <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E10" s="7">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="F10" s="7">
         <v>10</v>
@@ -2401,14 +2408,14 @@
       <c r="I10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>80</v>
+      <c r="J10" s="9">
+        <v>0.25</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -2422,10 +2429,10 @@
         <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E11" s="7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F11" s="7">
         <v>10</v>
@@ -2435,7 +2442,7 @@
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>80</v>
@@ -2444,20 +2451,44 @@
         <v>81</v>
       </c>
       <c r="L11" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7">
+        <v>120</v>
+      </c>
+      <c r="E12" s="7">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
@@ -2477,38 +2508,50 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="12"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="12"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="4"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="12"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
       <c r="G16" s="6"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="4"/>
       <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
